--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thaibev\RPAOACTemplate\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E891F64-C294-438B-A95F-290147042755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CA734C-4E57-4959-8301-46219F97C920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="71">
   <si>
     <t>Name</t>
   </si>
@@ -196,13 +196,46 @@
     <t>MailException</t>
   </si>
   <si>
-    <t>parnupon.k@thaibev.com</t>
-  </si>
-  <si>
     <t>\\10.7.54.107\sleaprpauna01\Thai Beverage Public Company Limited\OAC - RPA_Shared\{0}\process\{1}</t>
   </si>
   <si>
     <t>IsSapProcess</t>
+  </si>
+  <si>
+    <t>parnupong.k@thaibev.com</t>
+  </si>
+  <si>
+    <t>MaxConsecutiveSystemExceptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of consecutive system exceptions allowed. If MaxConsecutiveSystemExceptions is reached, the job is stopped. To disable this feature, set the value to 0. </t>
+  </si>
+  <si>
+    <t>ExceptionMessage_ConsecutiveErrors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
+  </si>
+  <si>
+    <t>Error message in case MaxConsecutiveSystemExceptions number is reached.</t>
+  </si>
+  <si>
+    <t>RetryNumberGetTransactionItem</t>
+  </si>
+  <si>
+    <t>The number of times Get Transaction Item activity is retried in case of an exception. Must be an integer &gt;= 1.</t>
+  </si>
+  <si>
+    <t>RetryNumberSetTransactionStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of times Set transaction status activity is retried in case of an exception. Must be an integer &gt;= 1. </t>
+  </si>
+  <si>
+    <t>ShouldMarkJobAsFaulted</t>
+  </si>
+  <si>
+    <t>Must be TRUE or FALSE. If the value is TRUE and an error occurs in Initialization state or the MaxConsecutiveSystemExceptions is reached, the job is marked as Faulted.</t>
   </si>
 </sst>
 </file>
@@ -581,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -665,7 +698,7 @@
         <v>31</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>32</v>
@@ -716,7 +749,7 @@
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -1719,8 +1752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1765,114 +1798,174 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="14.4">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
       <c r="C2" s="3" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+    </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
       </c>
     </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>57</v>
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thaibev\RPAOACTemplate\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CA734C-4E57-4959-8301-46219F97C920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116EE24A-A10A-41D9-9282-CA5E73AF4917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
   <si>
     <t>Name</t>
   </si>
@@ -236,6 +236,18 @@
   </si>
   <si>
     <t>Must be TRUE or FALSE. If the value is TRUE and an error occurs in Initialization state or the MaxConsecutiveSystemExceptions is reached, the job is marked as Faulted.</t>
+  </si>
+  <si>
+    <t>IsAddQueueWithEmail</t>
+  </si>
+  <si>
+    <t>IsReadSingleEmail</t>
+  </si>
+  <si>
+    <t>MailGetTop</t>
+  </si>
+  <si>
+    <t>if IsReadSingleEmail is true then config this value is 1</t>
   </si>
 </sst>
 </file>
@@ -612,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z997"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -749,16 +761,42 @@
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B11" t="b">
+      <c r="B14" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" s="2"/>
+    </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
@@ -1741,6 +1779,8 @@
     <row r="995" ht="14.25" customHeight="1"/>
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
+    <row r="998" ht="14.25" customHeight="1"/>
+    <row r="999" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1752,8 +1792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1947,7 +1987,7 @@
         <v>69</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
         <v>70</v>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thaibev\RPAOACTemplate\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116EE24A-A10A-41D9-9282-CA5E73AF4917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570D7D0F-5711-4DDB-81C9-3B93F78FFA23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -299,17 +299,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,7 +625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -709,7 +708,7 @@
       <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>57</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1929,7 +1928,7 @@
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" t="s">
         <v>17</v>
       </c>
       <c r="C12" t="s">
@@ -2971,8 +2970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thaibev\RPAOACTemplate\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570D7D0F-5711-4DDB-81C9-3B93F78FFA23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7E3A4E-1DD0-4136-BF71-1EABC6489853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -625,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -774,7 +774,7 @@
         <v>72</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
@@ -782,7 +782,7 @@
         <v>71</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
@@ -790,7 +790,7 @@
         <v>58</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
@@ -2970,7 +2970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thaibev\RPAOACTemplate\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7E3A4E-1DD0-4136-BF71-1EABC6489853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A42919-0C8B-474D-B842-C273936233AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="4470" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="86">
   <si>
     <t>Name</t>
   </si>
@@ -248,6 +248,39 @@
   </si>
   <si>
     <t>if IsReadSingleEmail is true then config this value is 1</t>
+  </si>
+  <si>
+    <t>sapSCMTBLUserName</t>
+  </si>
+  <si>
+    <t>sapSCMTBLPassword</t>
+  </si>
+  <si>
+    <t>sapOACUATUserName</t>
+  </si>
+  <si>
+    <t>sapOACUATPassword</t>
+  </si>
+  <si>
+    <t>SapClient</t>
+  </si>
+  <si>
+    <t>SapLanguage</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>SAPUserForLogin</t>
+  </si>
+  <si>
+    <t>sapASSCARUser</t>
+  </si>
+  <si>
+    <t>sapASSCARUser{0}</t>
+  </si>
+  <si>
+    <t>{0} is client</t>
   </si>
 </sst>
 </file>
@@ -625,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -794,25 +827,44 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15">
+        <v>701</v>
+      </c>
     </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -2971,7 +3023,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -3023,7 +3075,7 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>
@@ -3034,7 +3086,7 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -3045,7 +3097,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -3056,7 +3108,7 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -3084,7 +3136,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>85</v>
+      </c>
+    </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thaibev\RPAOACTemplate\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A42919-0C8B-474D-B842-C273936233AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D1864F-9EA2-4A91-A24B-327924C90478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="4470" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="87">
   <si>
     <t>Name</t>
   </si>
@@ -274,13 +274,16 @@
     <t>SAPUserForLogin</t>
   </si>
   <si>
-    <t>sapASSCARUser</t>
-  </si>
-  <si>
     <t>sapASSCARUser{0}</t>
   </si>
   <si>
-    <t>{0} is client</t>
+    <t>SapASSCARUser</t>
+  </si>
+  <si>
+    <t>SapASSCAPUser</t>
+  </si>
+  <si>
+    <t>sapASSCAPUser{0}</t>
   </si>
 </sst>
 </file>
@@ -659,7 +662,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -846,12 +849,23 @@
       <c r="A17" t="s">
         <v>82</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="19" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+    </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="21" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
@@ -3020,7 +3034,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
@@ -3136,20 +3150,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>85</v>
-      </c>
-    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
@@ -4139,7 +4140,6 @@
     <row r="995" ht="14.25" customHeight="1"/>
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thaibev\RPAOACTemplate\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D1864F-9EA2-4A91-A24B-327924C90478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1DB26B-A9EC-4E1A-82F2-665C84E51E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="4470" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="88">
   <si>
     <t>Name</t>
   </si>
@@ -284,13 +284,16 @@
   </si>
   <si>
     <t>sapASSCAPUser{0}</t>
+  </si>
+  <si>
+    <t>sapHANACVMRB{0}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -314,6 +317,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -335,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -345,6 +354,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -662,7 +672,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -834,7 +844,7 @@
         <v>79</v>
       </c>
       <c r="B15">
-        <v>701</v>
+        <v>902</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
@@ -848,6 +858,9 @@
     <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" t="s">
         <v>82</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1">

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thaibev\RPAOACTemplate\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\70101049\Documents\GitHub\RPAOACTemplate\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1DB26B-A9EC-4E1A-82F2-665C84E51E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49E64B3-E8D6-4DB1-9178-F2A3507D0BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="87">
   <si>
     <t>Name</t>
   </si>
@@ -109,9 +109,6 @@
     <t>OrchestratorFolderName</t>
   </si>
   <si>
-    <t>default is Shared</t>
-  </si>
-  <si>
     <t>Shared</t>
   </si>
   <si>
@@ -175,15 +172,9 @@
     <t>MailFolderInbox</t>
   </si>
   <si>
-    <t>bots_SOP_inbox</t>
-  </si>
-  <si>
     <t>MailFolderMoveTo</t>
   </si>
   <si>
-    <t>bots_SOP</t>
-  </si>
-  <si>
     <t>ThaibevOACEmailPassword</t>
   </si>
   <si>
@@ -202,9 +193,6 @@
     <t>IsSapProcess</t>
   </si>
   <si>
-    <t>parnupong.k@thaibev.com</t>
-  </si>
-  <si>
     <t>MaxConsecutiveSystemExceptions</t>
   </si>
   <si>
@@ -287,6 +275,15 @@
   </si>
   <si>
     <t>sapHANACVMRB{0}</t>
+  </si>
+  <si>
+    <t>kritsada.ca@thaibev.com, #oac@thaibev.com</t>
+  </si>
+  <si>
+    <t>default is Shared (PROD), Thaibev UAT Bots (UAT)</t>
+  </si>
+  <si>
+    <t>inbox</t>
   </si>
 </sst>
 </file>
@@ -672,7 +669,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -719,21 +716,21 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>41</v>
-      </c>
-      <c r="C2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -744,80 +741,80 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.4">
       <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" t="s">
         <v>44</v>
-      </c>
-      <c r="C6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.4">
       <c r="A8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B12" t="b">
         <v>0</v>
@@ -825,7 +822,7 @@
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B13" t="b">
         <v>0</v>
@@ -833,7 +830,7 @@
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
@@ -841,7 +838,7 @@
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B15">
         <v>902</v>
@@ -849,34 +846,34 @@
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1"/>
@@ -1871,7 +1868,7 @@
   <dimension ref="A1:Z987"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1929,10 +1926,10 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
@@ -1948,13 +1945,13 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2027,48 +2024,48 @@
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
@@ -3099,68 +3096,68 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
